--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,402 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jake</author>
+  </authors>
+  <commentList>
+    <comment ref="K14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+very close to lowering the last digit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+missing image (on purpose)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="38">
   <si>
     <t>depso</t>
   </si>
@@ -691,6 +1085,9 @@
   <si>
     <t>One of the first sets of data from Bio class. "fitness2" I think. Graphs as a wave patten with x = .1 the global min.</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
@@ -789,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +1220,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4061,20 +4473,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
+      <selection activeCell="B11" sqref="B11:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="9" width="13.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="4" customFormat="1" ht="48" customHeight="1">
+    <row r="2" spans="2:11" s="4" customFormat="1" ht="30">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -4090,11 +4506,11 @@
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:11" ht="48" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -4112,15 +4528,15 @@
       <c r="F3" s="3">
         <v>34594</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="48" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4138,13 +4554,13 @@
       <c r="F4" s="3">
         <v>34166</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="48" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -4162,11 +4578,11 @@
       <c r="F5" s="3">
         <v>650</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:11" ht="48" customHeight="1">
       <c r="B6" s="3" t="s">
@@ -4184,11 +4600,11 @@
       <c r="F6" s="3">
         <v>801</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="48" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -4206,21 +4622,113 @@
       <c r="F7" s="3">
         <v>401</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1">
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>17530</v>
+      </c>
+      <c r="F12" s="16">
+        <v>34594</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1">
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>300</v>
+      </c>
+      <c r="F13" s="16">
+        <v>650</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1">
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>400</v>
+      </c>
+      <c r="F14" s="16">
+        <v>801</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4229,12 +4737,1579 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="10.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="45">
+      <c r="A1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.5761E-3</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.8859E-3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2.7704000000000001E-3</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.8802999999999999E-3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.5458999999999998E-3</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.5626999999999998E-3</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.8828E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2.4483E-3</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2.5685999999999999E-3</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.8802999999999999E-3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.5443000000000002E-3</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2.5696E-3</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.8806000000000001E-3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2.5219000000000001E-3</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.5820000000000001E-3</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2.5601E-3</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.8804E-3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2.5398999999999999E-3</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2.5757000000000002E-3</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="7">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2.5753E-3</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.8814999999999999E-3</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2.4851999999999999E-3</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.8802999999999999E-3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2.5468000000000001E-3</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
+        <v>20.6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2.5680999999999998E-3</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2.5666999999999999E-3</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>9</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2.5820999999999999E-3</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1.8802000000000001E-3</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="7">
+        <v>63</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.7734199999999997E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4.96896E-2</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="7">
+        <v>61</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4.9674999999999997E-2</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="7">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.7733900000000003E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4.9681799999999998E-2</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4.77338E-2</v>
+      </c>
+      <c r="J25" s="7">
+        <v>4.9683100000000001E-2</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4.9678100000000003E-2</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="7">
+        <v>255</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G28" s="7">
+        <v>83</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4.9678699999999999E-2</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4.9677499999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>40</v>
+      </c>
+      <c r="E30" s="7">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>21</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4.9677399999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>17</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>4.9677399999999997E-2</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4.7760900000000002E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>4.9675400000000001E-2</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="7">
+        <v>39</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>4.7736000000000001E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4.9692500000000001E-2</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>24</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.7734199999999997E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4.9690499999999999E-2</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>20</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="G35" s="7">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4.9675200000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="7">
+        <v>4.8513800000000003E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5.0298799999999998E-2</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>12</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>4.9676999999999999E-2</v>
+      </c>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>9</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J38" s="7">
+        <v>6.7514999999999997E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J39" s="7">
+        <v>6.7511999999999997E-3</v>
+      </c>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>20</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>9</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J40" s="7">
+        <v>6.7516E-3</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>20</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>38</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I41" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J41" s="7">
+        <v>6.7520000000000002E-3</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>100</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>15</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J42" s="7">
+        <v>6.7516E-3</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>10</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5.7326E-3</v>
+      </c>
+      <c r="J43" s="7">
+        <v>6.7507000000000001E-3</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>10</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>9</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J44" s="7">
+        <v>6.7518999999999999E-3</v>
+      </c>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>7</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>5.7324999999999997E-3</v>
+      </c>
+      <c r="J45" s="7">
+        <v>6.7514999999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:J45">
+    <sortCondition ref="C2:C45" customList="price,rf,heartbeat"/>
+    <sortCondition ref="B2:B45" customList="depso,de,pso"/>
+    <sortCondition ref="D2:D45"/>
+    <sortCondition ref="E2:E45"/>
+    <sortCondition descending="1" ref="F2:F45"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -21,7 +22,7 @@
     <author>Jake</author>
   </authors>
   <commentList>
-    <comment ref="J14" authorId="0">
+    <comment ref="K14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0">
+    <comment ref="K25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0">
+    <comment ref="K29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0">
+    <comment ref="K31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0">
+    <comment ref="K34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J35" authorId="0">
+    <comment ref="K35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J38" authorId="0">
+    <comment ref="K38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J42" authorId="0">
+    <comment ref="K42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="0">
+    <comment ref="K47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J48" authorId="0">
+    <comment ref="K48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J54" authorId="0">
+    <comment ref="K54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J57" authorId="0">
+    <comment ref="K57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J59" authorId="0">
+    <comment ref="K59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J60" authorId="0">
+    <comment ref="K60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="0">
+    <comment ref="K61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J62" authorId="0">
+    <comment ref="K62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J63" authorId="0">
+    <comment ref="K63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J66" authorId="0">
+    <comment ref="K66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J67" authorId="0">
+    <comment ref="K67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +585,7 @@
     <author>Jake</author>
   </authors>
   <commentList>
-    <comment ref="K14" authorId="0">
+    <comment ref="L14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0">
+    <comment ref="L18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="L22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0">
+    <comment ref="L24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0">
+    <comment ref="L27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -728,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="L28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0">
+    <comment ref="L31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="0">
+    <comment ref="L36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0">
+    <comment ref="L37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -824,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="0">
+    <comment ref="L39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="0">
+    <comment ref="L40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -872,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0">
+    <comment ref="L41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -896,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K42" authorId="0">
+    <comment ref="L42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0">
+    <comment ref="L43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -944,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K44" authorId="0">
+    <comment ref="L44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -973,7 +974,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="38">
   <si>
     <t>depso</t>
   </si>
@@ -1142,7 +1143,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1186,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1218,8 +1225,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,14 +1249,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:Q169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1550,12 +1572,13 @@
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
     <col min="8" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="45">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="45">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1583,15 +1606,16 @@
       <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12"/>
+      <c r="M1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,11 +1643,11 @@
       <c r="I2" s="1">
         <v>2.5761E-3</v>
       </c>
-      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,11 +1675,11 @@
       <c r="I3" s="1">
         <v>2.7704000000000001E-3</v>
       </c>
-      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,11 +1707,11 @@
       <c r="I4" s="1">
         <v>2.5458999999999998E-3</v>
       </c>
-      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1715,11 +1739,11 @@
       <c r="I5" s="2">
         <v>2.5626999999999998E-3</v>
       </c>
-      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1747,11 +1771,11 @@
       <c r="I6" s="2">
         <v>2.4483E-3</v>
       </c>
-      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1779,11 +1803,11 @@
       <c r="I7" s="2">
         <v>2.5685999999999999E-3</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,11 +1835,11 @@
       <c r="I8" s="2">
         <v>2.5443000000000002E-3</v>
       </c>
-      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,11 +1867,11 @@
       <c r="I9" s="2">
         <v>2.5696E-3</v>
       </c>
-      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1875,11 +1899,11 @@
       <c r="I10" s="2">
         <v>2.5219000000000001E-3</v>
       </c>
-      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1907,11 +1931,11 @@
       <c r="I11" s="2">
         <v>2.5820000000000001E-3</v>
       </c>
-      <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1939,11 +1963,11 @@
       <c r="I12" s="2">
         <v>2.5601E-3</v>
       </c>
-      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1971,11 +1995,11 @@
       <c r="I13" s="2">
         <v>2.5398999999999999E-3</v>
       </c>
-      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1">
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2003,12 +2027,13 @@
       <c r="I14" s="2">
         <v>2.5757000000000002E-3</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="L14"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="6"/>
       <c r="M14"/>
       <c r="N14"/>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1">
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2036,11 +2061,12 @@
       <c r="I15" s="2">
         <v>2.5753E-3</v>
       </c>
-      <c r="L15"/>
+      <c r="J15" s="11"/>
       <c r="M15"/>
       <c r="N15"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2068,11 +2094,11 @@
       <c r="I16" s="2">
         <v>4.8844499999999999E-2</v>
       </c>
-      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2100,11 +2126,12 @@
       <c r="I17" s="2">
         <v>4.5755499999999998E-2</v>
       </c>
-      <c r="L17"/>
+      <c r="J17" s="11"/>
       <c r="M17"/>
       <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2132,11 +2159,11 @@
       <c r="I18" s="2">
         <v>4.7307700000000001E-2</v>
       </c>
-      <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2164,11 +2191,11 @@
       <c r="I19" s="2">
         <v>4.6542100000000003E-2</v>
       </c>
-      <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2196,11 +2223,11 @@
       <c r="I20" s="2">
         <v>4.5912700000000001E-2</v>
       </c>
-      <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2228,11 +2255,11 @@
       <c r="I21" s="2">
         <v>4.6049399999999997E-2</v>
       </c>
-      <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2260,11 +2287,11 @@
       <c r="I22" s="2">
         <v>4.5623400000000001E-2</v>
       </c>
-      <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2292,11 +2319,11 @@
       <c r="I23" s="2">
         <v>4.96896E-2</v>
       </c>
-      <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2324,11 +2351,11 @@
       <c r="I24" s="2">
         <v>4.9681799999999998E-2</v>
       </c>
-      <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2356,12 +2383,12 @@
       <c r="I25" s="2">
         <v>4.9674999999999997E-2</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="L25"/>
+      <c r="K25" s="8"/>
       <c r="M25"/>
       <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -2389,11 +2416,11 @@
       <c r="I26" s="2">
         <v>4.9678699999999999E-2</v>
       </c>
-      <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,11 +2448,11 @@
       <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,11 +2480,11 @@
       <c r="I28" s="2">
         <v>4.9678100000000003E-2</v>
       </c>
-      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2485,12 +2512,12 @@
       <c r="I29" s="2">
         <v>4.9683100000000001E-2</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="L29"/>
+      <c r="K29" s="8"/>
       <c r="M29"/>
       <c r="N29"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,11 +2545,11 @@
       <c r="I30" s="2">
         <v>4.9677499999999999E-2</v>
       </c>
-      <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2550,12 +2577,12 @@
       <c r="I31" s="2">
         <v>4.9677399999999997E-2</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="L31"/>
+      <c r="K31" s="6"/>
       <c r="M31"/>
       <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2583,11 +2610,11 @@
       <c r="I32" s="2">
         <v>4.9677399999999997E-2</v>
       </c>
-      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2615,11 +2642,11 @@
       <c r="I33" s="2">
         <v>6.7511999999999997E-3</v>
       </c>
-      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2647,9 +2674,9 @@
       <c r="I34" s="2">
         <v>6.7514999999999997E-3</v>
       </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -2677,9 +2704,9 @@
       <c r="I35" s="2">
         <v>6.7516E-3</v>
       </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2735,7 @@
         <v>6.7516E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2764,7 @@
         <v>6.7520000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2765,9 +2792,9 @@
       <c r="I38" s="2">
         <v>2.1336299999999999E-2</v>
       </c>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2823,7 @@
         <v>2.1336500000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2852,7 @@
         <v>2.1336500000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>2.1336899999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2882,9 +2909,9 @@
       <c r="I42" s="2">
         <v>2.4851999999999999E-3</v>
       </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -2912,9 +2939,10 @@
       <c r="I43" s="2">
         <v>2.5468000000000001E-3</v>
       </c>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="J43" s="11"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -2942,9 +2970,9 @@
       <c r="I44" s="2">
         <v>2.5680999999999998E-3</v>
       </c>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -2972,9 +3000,9 @@
       <c r="I45" s="3">
         <v>2.5666999999999999E-3</v>
       </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -3003,7 +3031,7 @@
         <v>2.5820999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3031,9 +3059,9 @@
       <c r="I47" s="3">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="3" t="s">
         <v>18</v>
       </c>
@@ -3058,9 +3086,9 @@
       <c r="H48" s="3">
         <v>2.0699E-3</v>
       </c>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
@@ -3086,7 +3114,7 @@
         <v>1.9476000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -3115,7 +3143,7 @@
         <v>5.2429099999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
@@ -3144,7 +3172,7 @@
         <v>4.5901900000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
@@ -3173,7 +3201,7 @@
         <v>5.56141E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3230,7 @@
         <v>0.1493015</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
         <v>17</v>
       </c>
@@ -3230,9 +3258,9 @@
       <c r="I54" s="3">
         <v>6.7578700000000005E-2</v>
       </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3289,7 @@
         <v>5.0994100000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="3" customFormat="1">
+    <row r="56" spans="1:11" s="3" customFormat="1">
       <c r="A56" s="3" t="s">
         <v>18</v>
       </c>
@@ -3286,8 +3314,9 @@
       <c r="H56" s="3">
         <v>9.3247200000000002E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
@@ -3315,9 +3344,9 @@
       <c r="I57" s="3">
         <v>4.9675400000000001E-2</v>
       </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3375,7 @@
         <v>4.9692500000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
@@ -3374,9 +3403,9 @@
       <c r="I59" s="3">
         <v>4.9675200000000003E-2</v>
       </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>6</v>
       </c>
@@ -3404,9 +3433,9 @@
       <c r="I60" s="3">
         <v>4.9690499999999999E-2</v>
       </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
         <v>17</v>
       </c>
@@ -3434,9 +3463,9 @@
       <c r="I61" s="3">
         <v>5.0298799999999998E-2</v>
       </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -3464,9 +3493,9 @@
       <c r="I62" s="3">
         <v>4.9676999999999999E-2</v>
       </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
         <v>18</v>
       </c>
@@ -3491,9 +3520,9 @@
       <c r="H63" s="3">
         <v>5.0817399999999999E-2</v>
       </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
         <v>18</v>
       </c>
@@ -3519,7 +3548,7 @@
         <v>4.9712699999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
         <v>18</v>
       </c>
@@ -3545,7 +3574,7 @@
         <v>4.9682299999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11">
       <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
@@ -3573,9 +3602,9 @@
       <c r="I66" s="3">
         <v>6.7507000000000001E-3</v>
       </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
@@ -3603,9 +3632,9 @@
       <c r="I67" s="3">
         <v>6.7518999999999999E-3</v>
       </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -3634,7 +3663,7 @@
         <v>6.7514999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
         <v>18</v>
       </c>
@@ -3660,7 +3689,7 @@
         <v>6.7516E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
@@ -3686,7 +3715,7 @@
         <v>6.7556999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
         <v>6</v>
       </c>
@@ -3715,7 +3744,7 @@
         <v>2.13356E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:11">
       <c r="A72" s="3" t="s">
         <v>17</v>
       </c>
@@ -3744,7 +3773,7 @@
         <v>2.1336600000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="A73" s="3" t="s">
         <v>18</v>
       </c>
@@ -3770,7 +3799,7 @@
         <v>2.13314E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
@@ -3796,42 +3825,42 @@
         <v>2.13314E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:11">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:11">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:11">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4463,7 +4492,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4473,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4506,11 +4535,11 @@
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="48" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -4528,15 +4557,15 @@
       <c r="F3" s="3">
         <v>34594</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="2:11" ht="48" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -4554,13 +4583,13 @@
       <c r="F4" s="3">
         <v>34166</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="48" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -4578,11 +4607,11 @@
       <c r="F5" s="3">
         <v>650</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="2:11" ht="48" customHeight="1">
       <c r="B6" s="3" t="s">
@@ -4600,11 +4629,11 @@
       <c r="F6" s="3">
         <v>801</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:11" ht="48" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -4622,11 +4651,11 @@
       <c r="F7" s="3">
         <v>401</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="11" spans="2:11" ht="30" customHeight="1">
       <c r="B11" s="10" t="s">
@@ -4644,91 +4673,183 @@
       <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:11" ht="30" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>7</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
         <v>17530</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>34594</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:11" ht="30" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>3</v>
       </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
         <v>300</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>650</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
         <v>400</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>801</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="19" spans="2:9" ht="30">
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>17482</v>
+      </c>
+      <c r="F20" s="11">
+        <v>34166</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="2:9" ht="22.5" customHeight="1">
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>300</v>
+      </c>
+      <c r="F21" s="11">
+        <v>650</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11">
+        <v>401</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4737,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4753,12 +4874,13 @@
     <col min="7" max="7" width="12.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="7" customWidth="1"/>
     <col min="9" max="10" width="10.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="10.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="45">
+    <row r="1" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
@@ -4789,15 +4911,16 @@
       <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="12"/>
+      <c r="N1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4828,11 +4951,11 @@
       <c r="J2" s="7">
         <v>2.5761E-3</v>
       </c>
-      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4863,11 +4986,11 @@
       <c r="J3" s="7">
         <v>2.7704000000000001E-3</v>
       </c>
-      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4898,11 +5021,11 @@
       <c r="J4" s="7">
         <v>2.5458999999999998E-3</v>
       </c>
-      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4933,11 +5056,11 @@
       <c r="J5" s="7">
         <v>2.5626999999999998E-3</v>
       </c>
-      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4968,11 +5091,11 @@
       <c r="J6" s="7">
         <v>2.4483E-3</v>
       </c>
-      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -5003,11 +5126,11 @@
       <c r="J7" s="7">
         <v>2.5685999999999999E-3</v>
       </c>
-      <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -5038,11 +5161,11 @@
       <c r="J8" s="7">
         <v>2.5443000000000002E-3</v>
       </c>
-      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -5073,11 +5196,11 @@
       <c r="J9" s="7">
         <v>2.5696E-3</v>
       </c>
-      <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -5108,11 +5231,11 @@
       <c r="J10" s="7">
         <v>2.5219000000000001E-3</v>
       </c>
-      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -5143,11 +5266,11 @@
       <c r="J11" s="7">
         <v>2.5820000000000001E-3</v>
       </c>
-      <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -5178,11 +5301,11 @@
       <c r="J12" s="7">
         <v>2.5601E-3</v>
       </c>
-      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -5213,11 +5336,11 @@
       <c r="J13" s="7">
         <v>2.5398999999999999E-3</v>
       </c>
-      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -5248,12 +5371,12 @@
       <c r="J14" s="7">
         <v>2.5757000000000002E-3</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="M14"/>
+      <c r="L14" s="6"/>
       <c r="N14"/>
       <c r="O14"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -5284,11 +5407,11 @@
       <c r="J15" s="7">
         <v>2.5753E-3</v>
       </c>
-      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -5319,11 +5442,11 @@
       <c r="J16" s="7">
         <v>2.4851999999999999E-3</v>
       </c>
-      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -5354,11 +5477,11 @@
       <c r="J17" s="7">
         <v>2.5468000000000001E-3</v>
       </c>
-      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -5389,12 +5512,12 @@
       <c r="J18" s="7">
         <v>2.5680999999999998E-3</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="M18"/>
+      <c r="L18" s="8"/>
       <c r="N18"/>
       <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -5425,11 +5548,11 @@
       <c r="J19" s="7">
         <v>2.5666999999999999E-3</v>
       </c>
-      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -5460,11 +5583,11 @@
       <c r="J20" s="7">
         <v>2.5820999999999999E-3</v>
       </c>
-      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -5495,11 +5618,11 @@
       <c r="J21" s="7">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -5530,12 +5653,12 @@
       <c r="J22" s="7">
         <v>4.96896E-2</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="M22"/>
+      <c r="L22" s="8"/>
       <c r="N22"/>
       <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -5566,11 +5689,11 @@
       <c r="J23" s="7">
         <v>4.9674999999999997E-2</v>
       </c>
-      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -5601,12 +5724,12 @@
       <c r="J24" s="7">
         <v>4.9681799999999998E-2</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="M24"/>
+      <c r="L24" s="6"/>
       <c r="N24"/>
       <c r="O24"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5637,11 +5760,11 @@
       <c r="J25" s="7">
         <v>4.9683100000000001E-2</v>
       </c>
-      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5672,11 +5795,11 @@
       <c r="J26" s="7">
         <v>4.9678100000000003E-2</v>
       </c>
-      <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -5707,9 +5830,9 @@
       <c r="J27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -5740,9 +5863,9 @@
       <c r="J28" s="7">
         <v>4.9678699999999999E-2</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -5774,7 +5897,7 @@
         <v>4.9677499999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -5806,7 +5929,7 @@
         <v>4.9677399999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -5837,9 +5960,9 @@
       <c r="J31" s="7">
         <v>4.9677399999999997E-2</v>
       </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -5870,9 +5993,9 @@
       <c r="J32" s="7">
         <v>4.9675400000000001E-2</v>
       </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -5903,9 +6026,9 @@
       <c r="J33" s="7">
         <v>4.9692500000000001E-2</v>
       </c>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -5936,9 +6059,9 @@
       <c r="J34" s="7">
         <v>4.9690499999999999E-2</v>
       </c>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -5970,7 +6093,7 @@
         <v>4.9675200000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -6001,9 +6124,9 @@
       <c r="J36" s="7">
         <v>5.0298799999999998E-2</v>
       </c>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -6034,9 +6157,9 @@
       <c r="J37" s="7">
         <v>4.9676999999999999E-2</v>
       </c>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -6068,7 +6191,7 @@
         <v>6.7514999999999997E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -6099,9 +6222,9 @@
       <c r="J39" s="7">
         <v>6.7511999999999997E-3</v>
       </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -6132,9 +6255,9 @@
       <c r="J40" s="7">
         <v>6.7516E-3</v>
       </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -6165,9 +6288,9 @@
       <c r="J41" s="7">
         <v>6.7520000000000002E-3</v>
       </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -6198,9 +6321,9 @@
       <c r="J42" s="7">
         <v>6.7516E-3</v>
       </c>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -6231,9 +6354,9 @@
       <c r="J43" s="7">
         <v>6.7507000000000001E-3</v>
       </c>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -6264,9 +6387,9 @@
       <c r="J44" s="7">
         <v>6.7518999999999999E-3</v>
       </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -6307,9 +6430,1370 @@
     <sortCondition descending="1" ref="F2:F45"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45">
+      <c r="A1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11">
+        <v>50</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="11">
+        <v>9.3247200000000002E-2</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>16</v>
+      </c>
+      <c r="H3" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5.1705800000000003E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4.7307700000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>29</v>
+      </c>
+      <c r="H4" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5.0322699999999998E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>4.6542100000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="11">
+        <v>114</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4.98136E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4.5912700000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11">
+        <v>17.8</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4.9973099999999999E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4.6049399999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>26</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5.3192000000000003E-2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4.8844499999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>17</v>
+      </c>
+      <c r="H8" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4.9985799999999997E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>4.5755499999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="5">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4.9788600000000002E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4.5623400000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11">
+        <v>11.6</v>
+      </c>
+      <c r="I10" s="11">
+        <v>5.02557E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4.5901900000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5.4072799999999997E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5.2429099999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6.4583399999999999E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>5.56141E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.1572298</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.1493015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11">
+        <v>11.4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6.58025E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>6.7578700000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11">
+        <v>12.1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5.4187600000000002E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5.0994100000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="11">
+        <v>50</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="11">
+        <v>5.0817399999999999E-2</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="11">
+        <v>50</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4.9712699999999999E-2</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="11">
+        <v>100</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11">
+        <v>4.9682299999999999E-2</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="11">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4.7734199999999997E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4.96896E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="11">
+        <v>61</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>4.9674999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11">
+        <v>7</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="11">
+        <v>65</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>4.7733900000000003E-2</v>
+      </c>
+      <c r="J21" s="11">
+        <v>4.9681799999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="20">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>16</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="11">
+        <v>4.77338E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <v>4.9683100000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>20</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="11">
+        <v>255</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>15</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>4.9678100000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>20</v>
+      </c>
+      <c r="E25" s="11">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G25" s="11">
+        <v>83</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <v>4.9678699999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>40</v>
+      </c>
+      <c r="E26" s="11">
+        <v>3</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>15</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>4.9677499999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>40</v>
+      </c>
+      <c r="E27" s="11">
+        <v>5</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>21</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J27" s="11">
+        <v>4.9677399999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>100</v>
+      </c>
+      <c r="E28" s="11">
+        <v>7</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>17</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="I28" s="11">
+        <v>4.77326E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <v>4.9677399999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>13</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="11">
+        <v>4.7760900000000002E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <v>4.9675400000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="20">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G30" s="11">
+        <v>39</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>4.7736000000000001E-2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>4.9692500000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="20">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>20</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="11">
+        <v>46</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I31" s="11">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J31" s="11">
+        <v>4.9675200000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="20">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>24</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="I32" s="11">
+        <v>4.7734199999999997E-2</v>
+      </c>
+      <c r="J32" s="11">
+        <v>4.9690499999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="20">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
+        <v>11</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="11">
+        <v>4.8513800000000003E-2</v>
+      </c>
+      <c r="J33" s="11">
+        <v>5.0298799999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="20">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="11">
+        <v>12</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="11">
+        <v>4.7732900000000002E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>4.9676999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="20">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11">
+        <v>5</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="11">
+        <v>100</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2.13314E-2</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="11">
+        <v>20</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="11">
+        <v>100</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="11">
+        <v>2.13314E-2</v>
+      </c>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="20">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="11">
+        <v>5</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>8</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2.1418300000000001E-2</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2.1336299999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="20">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="11">
+        <v>20</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>25</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2.1418300000000001E-2</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2.1336899999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="20">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="11">
+        <v>20</v>
+      </c>
+      <c r="E39" s="11">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="11">
+        <v>2.1418300000000001E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <v>2.1336500000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11">
+        <v>100</v>
+      </c>
+      <c r="E40" s="11">
+        <v>5</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>15</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2.1418300000000001E-2</v>
+      </c>
+      <c r="J40" s="11">
+        <v>2.1336500000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="11">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>9</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="11">
+        <v>2.1418400000000001E-2</v>
+      </c>
+      <c r="J41" s="11">
+        <v>2.13356E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="11">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>9</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="11">
+        <v>2.1418300000000001E-2</v>
+      </c>
+      <c r="J42" s="11">
+        <v>2.1336600000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:J74">
+    <sortCondition ref="C2:C74" customList="consumption,rf,bio"/>
+    <sortCondition ref="B2:B74" customList="gatool,depso,de,pso"/>
+    <sortCondition ref="D2:D74"/>
+    <sortCondition ref="E2:E74"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>